--- a/SW5.xlsx
+++ b/SW5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16760" uniqueCount="4348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18488" uniqueCount="4780">
   <si>
     <t>dInstal</t>
   </si>
@@ -13056,6 +13056,1302 @@
   </si>
   <si>
     <t>2023-06-30 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 03:00:00</t>
+  </si>
+  <si>
+    <t>2023-07-01 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 06:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 09:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-01 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 13:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-01 17:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-01 18:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-01 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 21:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-01 22:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 23:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 04:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 06:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 09:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 12:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 16:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 18:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 20:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 22:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 03:00:49</t>
+  </si>
+  <si>
+    <t>2023-07-03 04:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 06:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 09:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-03 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 12:01:07</t>
+  </si>
+  <si>
+    <t>2023-07-03 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 18:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-03 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 03:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 05:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 06:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 07:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 09:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 14:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 18:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 19:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 20:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 22:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-05 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-05 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 04:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 06:00:32</t>
+  </si>
+  <si>
+    <t>2023-07-05 07:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-05 08:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-05 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 17:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 18:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-05 19:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-05 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 21:00:00</t>
+  </si>
+  <si>
+    <t>2023-07-05 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 04:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-06 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 06:00:22</t>
+  </si>
+  <si>
+    <t>2023-07-06 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 12:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-06 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 14:00:50</t>
+  </si>
+  <si>
+    <t>2023-07-06 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 16:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-06 17:00:36</t>
+  </si>
+  <si>
+    <t>2023-07-06 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-07 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-07 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-07 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-07 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-07 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-07 15:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-07 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-07 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-08 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 16:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-08 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 21:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-08 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-09 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-09 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-09 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-10 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-10 03:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-10 05:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-10 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-10 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-10 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-10 16:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-10 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-10 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-11 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-11 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-12 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-12 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-12 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-12 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-12 09:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-12 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-12 14:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-12 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-12 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-12 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-13 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 02:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-13 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-13 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-13 13:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-13 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-13 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-14 01:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-14 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-14 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-14 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-14 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-14 13:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-14 18:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-14 21:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-14 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-15 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 11:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-15 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 15:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-15 20:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-15 22:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-16 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-16 02:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-16 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 13:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-16 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-16 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-17 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-17 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-17 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-17 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-17 18:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-17 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-17 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-18 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-18 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 12:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-18 14:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-18 16:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-18 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-18 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-19 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-19 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-19 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 16:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-19 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 20:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-19 22:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-20 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 02:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-20 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-20 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-20 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 15:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 22:00:00</t>
+  </si>
+  <si>
+    <t>2023-07-21 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-21 04:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-21 06:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 08:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-21 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 12:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-21 14:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 16:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-21 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 22:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-22 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-22 02:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-22 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 09:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-22 11:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-22 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 15:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 17:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-22 19:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-22 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-23 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-23 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-23 04:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-23 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-23 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-23 12:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-23 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-23 16:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-23 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-23 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-24 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-24 02:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-24 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-24 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-24 09:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-24 11:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-24 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-24 15:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-24 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-24 20:01:00</t>
+  </si>
+  <si>
+    <t>2023-07-24 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-25 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-25 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-25 09:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-25 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-25 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 17:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-25 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-26 02:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-26 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-26 09:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-26 12:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-26 15:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-26 18:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-26 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-26 23:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-27 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-27 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 14:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-27 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-27 19:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-27 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-28 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-28 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-28 04:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-28 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-28 09:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-28 12:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-28 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-28 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-28 21:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-28 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-29 01:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-29 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-29 05:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-29 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-29 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-29 12:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-29 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-29 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-29 21:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-30 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-30 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 05:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-30 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 09:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-30 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 21:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-30 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 01:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-31 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-31 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-31 12:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-31 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-31 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 21:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-31 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-01 01:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-01 03:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-01 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-01 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-01 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-01 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-01 16:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-01 18:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-01 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-01 23:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 01:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-02 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-02 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-02 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-02 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-02 18:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-02 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-02 22:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-03 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-03 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-03 07:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-03 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 13:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-03 15:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-03 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-03 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-04 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-04 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-04 04:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-04 06:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-04 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-04 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-04 13:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-04 15:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-04 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-04 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-04 22:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-05 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-05 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-05 05:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-05 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-05 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-05 12:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-05 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-05 17:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-05 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-05 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-06 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-06 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-06 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-06 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-06 12:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-06 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-06 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-06 18:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-06 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-06 22:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-07 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-07 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-07 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-07 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-07 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-07 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-07 14:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-07 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-07 18:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-07 20:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-07 22:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-08 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 14:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-08 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 18:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-08 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-08 22:00:03</t>
   </si>
 </sst>
 </file>
@@ -13100,7 +14396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4190"/>
+  <dimension ref="A1:D4622"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -71766,6 +73062,6054 @@
         <v>631</v>
       </c>
     </row>
+    <row r="4191">
+      <c r="A4191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4191" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C4191" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4191" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="4192">
+      <c r="A4192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4192" t="s">
+        <v>4349</v>
+      </c>
+      <c r="C4192" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4192" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="4193">
+      <c r="A4193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4193" t="s">
+        <v>4350</v>
+      </c>
+      <c r="C4193" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4193" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="4194">
+      <c r="A4194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4194" t="s">
+        <v>4351</v>
+      </c>
+      <c r="C4194" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4194" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="4195">
+      <c r="A4195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4195" t="s">
+        <v>4352</v>
+      </c>
+      <c r="C4195" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4195" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="4196">
+      <c r="A4196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4196" t="s">
+        <v>4353</v>
+      </c>
+      <c r="C4196" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4196" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="4197">
+      <c r="A4197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4197" t="s">
+        <v>4354</v>
+      </c>
+      <c r="C4197" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4197" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="4198">
+      <c r="A4198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4198" t="s">
+        <v>4355</v>
+      </c>
+      <c r="C4198" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4198" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="4199">
+      <c r="A4199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4199" t="s">
+        <v>4356</v>
+      </c>
+      <c r="C4199" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4199" t="s">
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="4200">
+      <c r="A4200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4200" t="s">
+        <v>4357</v>
+      </c>
+      <c r="C4200" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4200" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="4201">
+      <c r="A4201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4201" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C4201" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4201" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="4202">
+      <c r="A4202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4202" t="s">
+        <v>4359</v>
+      </c>
+      <c r="C4202" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4202" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="4203">
+      <c r="A4203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4203" t="s">
+        <v>4360</v>
+      </c>
+      <c r="C4203" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4203" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="4204">
+      <c r="A4204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4204" t="s">
+        <v>4361</v>
+      </c>
+      <c r="C4204" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4204" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="4205">
+      <c r="A4205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4205" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C4205" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4205" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="4206">
+      <c r="A4206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4206" t="s">
+        <v>4363</v>
+      </c>
+      <c r="C4206" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4206" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="4207">
+      <c r="A4207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4207" t="s">
+        <v>4364</v>
+      </c>
+      <c r="C4207" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4207" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="4208">
+      <c r="A4208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4208" t="s">
+        <v>4365</v>
+      </c>
+      <c r="C4208" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4208" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="4209">
+      <c r="A4209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4209" t="s">
+        <v>4366</v>
+      </c>
+      <c r="C4209" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4209" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="4210">
+      <c r="A4210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4210" t="s">
+        <v>4367</v>
+      </c>
+      <c r="C4210" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4210" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="4211">
+      <c r="A4211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4211" t="s">
+        <v>4368</v>
+      </c>
+      <c r="C4211" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4211" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="4212">
+      <c r="A4212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4212" t="s">
+        <v>4369</v>
+      </c>
+      <c r="C4212" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4212" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="4213">
+      <c r="A4213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4213" t="s">
+        <v>4370</v>
+      </c>
+      <c r="C4213" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4213" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="4214">
+      <c r="A4214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4214" t="s">
+        <v>4371</v>
+      </c>
+      <c r="C4214" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4214" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="4215">
+      <c r="A4215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4215" t="s">
+        <v>4372</v>
+      </c>
+      <c r="C4215" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4215" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="4216">
+      <c r="A4216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4216" t="s">
+        <v>4373</v>
+      </c>
+      <c r="C4216" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4216" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="4217">
+      <c r="A4217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4217" t="s">
+        <v>4374</v>
+      </c>
+      <c r="C4217" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4217" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="4218">
+      <c r="A4218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4218" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C4218" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4218" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="4219">
+      <c r="A4219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4219" t="s">
+        <v>4376</v>
+      </c>
+      <c r="C4219" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4219" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="4220">
+      <c r="A4220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4220" t="s">
+        <v>4377</v>
+      </c>
+      <c r="C4220" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4220" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="4221">
+      <c r="A4221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4221" t="s">
+        <v>4378</v>
+      </c>
+      <c r="C4221" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4221" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="4222">
+      <c r="A4222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4222" t="s">
+        <v>4379</v>
+      </c>
+      <c r="C4222" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4222" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="4223">
+      <c r="A4223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4223" t="s">
+        <v>4380</v>
+      </c>
+      <c r="C4223" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4223" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="4224">
+      <c r="A4224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4224" t="s">
+        <v>4381</v>
+      </c>
+      <c r="C4224" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4224" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="4225">
+      <c r="A4225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4225" t="s">
+        <v>4382</v>
+      </c>
+      <c r="C4225" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4225" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="4226">
+      <c r="A4226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4226" t="s">
+        <v>4383</v>
+      </c>
+      <c r="C4226" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4226" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="4227">
+      <c r="A4227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4227" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C4227" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4227" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="4228">
+      <c r="A4228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4228" t="s">
+        <v>4385</v>
+      </c>
+      <c r="C4228" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4228" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="4229">
+      <c r="A4229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4229" t="s">
+        <v>4386</v>
+      </c>
+      <c r="C4229" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4229" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="4230">
+      <c r="A4230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4230" t="s">
+        <v>4387</v>
+      </c>
+      <c r="C4230" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4230" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="4231">
+      <c r="A4231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4231" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C4231" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4231" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="4232">
+      <c r="A4232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4232" t="s">
+        <v>4389</v>
+      </c>
+      <c r="C4232" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4232" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="4233">
+      <c r="A4233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4233" t="s">
+        <v>4390</v>
+      </c>
+      <c r="C4233" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4233" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="4234">
+      <c r="A4234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4234" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C4234" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4234" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="4235">
+      <c r="A4235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4235" t="s">
+        <v>4392</v>
+      </c>
+      <c r="C4235" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4235" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="4236">
+      <c r="A4236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4236" t="s">
+        <v>4393</v>
+      </c>
+      <c r="C4236" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4236" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="4237">
+      <c r="A4237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4237" t="s">
+        <v>4394</v>
+      </c>
+      <c r="C4237" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4237" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="4238">
+      <c r="A4238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4238" t="s">
+        <v>4395</v>
+      </c>
+      <c r="C4238" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4238" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="4239">
+      <c r="A4239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4239" t="s">
+        <v>4396</v>
+      </c>
+      <c r="C4239" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4239" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="4240">
+      <c r="A4240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4240" t="s">
+        <v>4397</v>
+      </c>
+      <c r="C4240" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4240" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="4241">
+      <c r="A4241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4241" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C4241" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4241" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="4242">
+      <c r="A4242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4242" t="s">
+        <v>4399</v>
+      </c>
+      <c r="C4242" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4242" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="4243">
+      <c r="A4243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4243" t="s">
+        <v>4400</v>
+      </c>
+      <c r="C4243" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4243" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="4244">
+      <c r="A4244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C4244" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4244" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="4245">
+      <c r="A4245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>4402</v>
+      </c>
+      <c r="C4245" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4245" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="4246">
+      <c r="A4246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>4403</v>
+      </c>
+      <c r="C4246" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4246" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="4247">
+      <c r="A4247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>4404</v>
+      </c>
+      <c r="C4247" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4247" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4248">
+      <c r="A4248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>4405</v>
+      </c>
+      <c r="C4248" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4248" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4249">
+      <c r="A4249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>4406</v>
+      </c>
+      <c r="C4249" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4249" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4250">
+      <c r="A4250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>4407</v>
+      </c>
+      <c r="C4250" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4250" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4251">
+      <c r="A4251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C4251" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4251" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4252">
+      <c r="A4252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>4409</v>
+      </c>
+      <c r="C4252" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4252" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4253">
+      <c r="A4253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C4253" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4253" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4254">
+      <c r="A4254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>4411</v>
+      </c>
+      <c r="C4254" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4254" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4255">
+      <c r="A4255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C4255" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4255" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4256">
+      <c r="A4256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>4413</v>
+      </c>
+      <c r="C4256" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4256" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4257">
+      <c r="A4257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>4414</v>
+      </c>
+      <c r="C4257" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4257" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4258">
+      <c r="A4258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>4415</v>
+      </c>
+      <c r="C4258" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4258" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="4259">
+      <c r="A4259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>4416</v>
+      </c>
+      <c r="C4259" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4259" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4260">
+      <c r="A4260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>4417</v>
+      </c>
+      <c r="C4260" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4260" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4261">
+      <c r="A4261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C4261" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4261" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4262">
+      <c r="A4262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>4419</v>
+      </c>
+      <c r="C4262" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4262" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4263">
+      <c r="A4263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>4420</v>
+      </c>
+      <c r="C4263" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4263" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4264">
+      <c r="A4264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C4264" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4264" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4265">
+      <c r="A4265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>4422</v>
+      </c>
+      <c r="C4265" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4265" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4266">
+      <c r="A4266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C4266" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4266" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4267">
+      <c r="A4267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>4424</v>
+      </c>
+      <c r="C4267" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4267" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4268">
+      <c r="A4268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>4425</v>
+      </c>
+      <c r="C4268" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4268" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4269">
+      <c r="A4269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>4426</v>
+      </c>
+      <c r="C4269" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4269" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4270">
+      <c r="A4270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C4270" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4270" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4271">
+      <c r="A4271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C4271" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4271" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4272">
+      <c r="A4272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>4429</v>
+      </c>
+      <c r="C4272" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4272" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="4273">
+      <c r="A4273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C4273" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4273" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="4274">
+      <c r="A4274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>4431</v>
+      </c>
+      <c r="C4274" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4274" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4275">
+      <c r="A4275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C4275" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4275" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="4276">
+      <c r="A4276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C4276" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4276" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4277">
+      <c r="A4277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C4277" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4277" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4278">
+      <c r="A4278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C4278" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4278" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4279">
+      <c r="A4279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C4279" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4279" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4280">
+      <c r="A4280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>4437</v>
+      </c>
+      <c r="C4280" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4280" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4281">
+      <c r="A4281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C4281" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4281" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4282">
+      <c r="A4282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>4439</v>
+      </c>
+      <c r="C4282" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4282" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4283">
+      <c r="A4283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>4440</v>
+      </c>
+      <c r="C4283" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4283" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4284">
+      <c r="A4284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>4441</v>
+      </c>
+      <c r="C4284" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4284" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4285">
+      <c r="A4285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>4442</v>
+      </c>
+      <c r="C4285" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4285" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4286">
+      <c r="A4286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>4443</v>
+      </c>
+      <c r="C4286" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4286" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4287">
+      <c r="A4287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>4444</v>
+      </c>
+      <c r="C4287" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4287" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4288">
+      <c r="A4288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>4445</v>
+      </c>
+      <c r="C4288" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4288" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4289">
+      <c r="A4289" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C4289" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4289" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4290">
+      <c r="A4290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>4447</v>
+      </c>
+      <c r="C4290" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4290" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4291">
+      <c r="A4291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>4448</v>
+      </c>
+      <c r="C4291" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4291" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4292">
+      <c r="A4292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>4449</v>
+      </c>
+      <c r="C4292" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4292" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="4293">
+      <c r="A4293" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>4450</v>
+      </c>
+      <c r="C4293" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4293" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4294">
+      <c r="A4294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>4451</v>
+      </c>
+      <c r="C4294" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4294" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="4295">
+      <c r="A4295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>4452</v>
+      </c>
+      <c r="C4295" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4295" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4296">
+      <c r="A4296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>4453</v>
+      </c>
+      <c r="C4296" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4296" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4297">
+      <c r="A4297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>4454</v>
+      </c>
+      <c r="C4297" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4297" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4298">
+      <c r="A4298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C4298" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4298" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4299">
+      <c r="A4299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>4456</v>
+      </c>
+      <c r="C4299" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4299" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4300">
+      <c r="A4300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>4457</v>
+      </c>
+      <c r="C4300" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4300" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4301">
+      <c r="A4301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C4301" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4301" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4302">
+      <c r="A4302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>4459</v>
+      </c>
+      <c r="C4302" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4302" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4303">
+      <c r="A4303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>4460</v>
+      </c>
+      <c r="C4303" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4303" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4304">
+      <c r="A4304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>4461</v>
+      </c>
+      <c r="C4304" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4304" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4305">
+      <c r="A4305" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C4305" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4305" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4306">
+      <c r="A4306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C4306" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4306" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4307">
+      <c r="A4307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C4307" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4307" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4308">
+      <c r="A4308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>4465</v>
+      </c>
+      <c r="C4308" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4308" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4309">
+      <c r="A4309" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C4309" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4309" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4310">
+      <c r="A4310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C4310" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4310" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4311">
+      <c r="A4311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>4468</v>
+      </c>
+      <c r="C4311" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4311" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4312">
+      <c r="A4312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>4469</v>
+      </c>
+      <c r="C4312" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4312" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4313">
+      <c r="A4313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>4470</v>
+      </c>
+      <c r="C4313" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4313" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4314">
+      <c r="A4314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C4314" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4314" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4315">
+      <c r="A4315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>4472</v>
+      </c>
+      <c r="C4315" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4315" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4316">
+      <c r="A4316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C4316" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4316" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4317">
+      <c r="A4317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C4317" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4317" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4318">
+      <c r="A4318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>4475</v>
+      </c>
+      <c r="C4318" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4318" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4319">
+      <c r="A4319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>4476</v>
+      </c>
+      <c r="C4319" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4319" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4320">
+      <c r="A4320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>4477</v>
+      </c>
+      <c r="C4320" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4320" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4321">
+      <c r="A4321" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>4478</v>
+      </c>
+      <c r="C4321" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4321" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4322">
+      <c r="A4322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>4479</v>
+      </c>
+      <c r="C4322" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4322" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4323">
+      <c r="A4323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>4480</v>
+      </c>
+      <c r="C4323" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4323" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4324">
+      <c r="A4324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>4481</v>
+      </c>
+      <c r="C4324" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4324" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4325">
+      <c r="A4325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C4325" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4325" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4326">
+      <c r="A4326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>4483</v>
+      </c>
+      <c r="C4326" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4326" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4327">
+      <c r="A4327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>4484</v>
+      </c>
+      <c r="C4327" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4327" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4328">
+      <c r="A4328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>4485</v>
+      </c>
+      <c r="C4328" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4328" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4329">
+      <c r="A4329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>4486</v>
+      </c>
+      <c r="C4329" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4329" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4330">
+      <c r="A4330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C4330" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4330" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4331">
+      <c r="A4331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C4331" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4331" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4332">
+      <c r="A4332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>4489</v>
+      </c>
+      <c r="C4332" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4332" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4333">
+      <c r="A4333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>4490</v>
+      </c>
+      <c r="C4333" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4333" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4334">
+      <c r="A4334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>4491</v>
+      </c>
+      <c r="C4334" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4334" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4335">
+      <c r="A4335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>4492</v>
+      </c>
+      <c r="C4335" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4335" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4336">
+      <c r="A4336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>4493</v>
+      </c>
+      <c r="C4336" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4336" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4337">
+      <c r="A4337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>4494</v>
+      </c>
+      <c r="C4337" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4337" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4338">
+      <c r="A4338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>4495</v>
+      </c>
+      <c r="C4338" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4338" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4339">
+      <c r="A4339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>4496</v>
+      </c>
+      <c r="C4339" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4339" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4340">
+      <c r="A4340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>4497</v>
+      </c>
+      <c r="C4340" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4340" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4341">
+      <c r="A4341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>4498</v>
+      </c>
+      <c r="C4341" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4341" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4342">
+      <c r="A4342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C4342" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4342" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4343">
+      <c r="A4343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>4500</v>
+      </c>
+      <c r="C4343" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4343" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4344">
+      <c r="A4344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>4501</v>
+      </c>
+      <c r="C4344" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4344" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4345">
+      <c r="A4345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>4502</v>
+      </c>
+      <c r="C4345" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4345" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4346">
+      <c r="A4346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C4346" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4346" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4347">
+      <c r="A4347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>4504</v>
+      </c>
+      <c r="C4347" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4347" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4348">
+      <c r="A4348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>4505</v>
+      </c>
+      <c r="C4348" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4348" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4349">
+      <c r="A4349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>4506</v>
+      </c>
+      <c r="C4349" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4349" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4350">
+      <c r="A4350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>4507</v>
+      </c>
+      <c r="C4350" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4350" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4351">
+      <c r="A4351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>4508</v>
+      </c>
+      <c r="C4351" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4351" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4352">
+      <c r="A4352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>4509</v>
+      </c>
+      <c r="C4352" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4352" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4353">
+      <c r="A4353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>4510</v>
+      </c>
+      <c r="C4353" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4353" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4354">
+      <c r="A4354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C4354" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4354" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4355">
+      <c r="A4355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C4355" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4355" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4356">
+      <c r="A4356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C4356" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4356" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4357">
+      <c r="A4357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C4357" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4357" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4358">
+      <c r="A4358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C4358" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4358" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4359">
+      <c r="A4359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>4516</v>
+      </c>
+      <c r="C4359" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4359" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4360">
+      <c r="A4360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>4517</v>
+      </c>
+      <c r="C4360" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4360" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4361">
+      <c r="A4361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C4361" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4361" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4362">
+      <c r="A4362" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C4362" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4362" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4363">
+      <c r="A4363" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>4520</v>
+      </c>
+      <c r="C4363" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4363" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4364">
+      <c r="A4364" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>4521</v>
+      </c>
+      <c r="C4364" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4364" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4365">
+      <c r="A4365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C4365" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4365" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4366">
+      <c r="A4366" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>4523</v>
+      </c>
+      <c r="C4366" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4366" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4367">
+      <c r="A4367" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>4524</v>
+      </c>
+      <c r="C4367" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4367" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4368">
+      <c r="A4368" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>4525</v>
+      </c>
+      <c r="C4368" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4368" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4369">
+      <c r="A4369" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>4526</v>
+      </c>
+      <c r="C4369" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4369" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4370">
+      <c r="A4370" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>4527</v>
+      </c>
+      <c r="C4370" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4370" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4371">
+      <c r="A4371" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C4371" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4371" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4372">
+      <c r="A4372" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>4529</v>
+      </c>
+      <c r="C4372" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4372" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4373">
+      <c r="A4373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C4373" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4373" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4374">
+      <c r="A4374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>4531</v>
+      </c>
+      <c r="C4374" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4374" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4375">
+      <c r="A4375" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>4532</v>
+      </c>
+      <c r="C4375" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4375" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4376">
+      <c r="A4376" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C4376" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4376" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4377">
+      <c r="A4377" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>4534</v>
+      </c>
+      <c r="C4377" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4377" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4378">
+      <c r="A4378" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>4535</v>
+      </c>
+      <c r="C4378" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4378" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4379">
+      <c r="A4379" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>4536</v>
+      </c>
+      <c r="C4379" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4379" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4380">
+      <c r="A4380" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>4537</v>
+      </c>
+      <c r="C4380" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4380" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4381">
+      <c r="A4381" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C4381" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4381" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4382">
+      <c r="A4382" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>4539</v>
+      </c>
+      <c r="C4382" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4382" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4383">
+      <c r="A4383" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>4540</v>
+      </c>
+      <c r="C4383" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4383" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4384">
+      <c r="A4384" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>4541</v>
+      </c>
+      <c r="C4384" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4384" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4385">
+      <c r="A4385" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>4542</v>
+      </c>
+      <c r="C4385" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4385" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4386">
+      <c r="A4386" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>4543</v>
+      </c>
+      <c r="C4386" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4386" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4387">
+      <c r="A4387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C4387" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4387" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4388">
+      <c r="A4388" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C4388" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4388" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4389">
+      <c r="A4389" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>4546</v>
+      </c>
+      <c r="C4389" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4389" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4390">
+      <c r="A4390" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>4547</v>
+      </c>
+      <c r="C4390" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4390" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4391">
+      <c r="A4391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>4548</v>
+      </c>
+      <c r="C4391" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4391" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4392">
+      <c r="A4392" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>4549</v>
+      </c>
+      <c r="C4392" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4392" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4393">
+      <c r="A4393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>4550</v>
+      </c>
+      <c r="C4393" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4393" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4394">
+      <c r="A4394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>4551</v>
+      </c>
+      <c r="C4394" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4394" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4395">
+      <c r="A4395" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>4552</v>
+      </c>
+      <c r="C4395" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4395" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4396">
+      <c r="A4396" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>4553</v>
+      </c>
+      <c r="C4396" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4396" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4397">
+      <c r="A4397" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>4554</v>
+      </c>
+      <c r="C4397" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4397" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4398">
+      <c r="A4398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>4555</v>
+      </c>
+      <c r="C4398" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4398" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4399">
+      <c r="A4399" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4399" t="s">
+        <v>4556</v>
+      </c>
+      <c r="C4399" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4399" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4400">
+      <c r="A4400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4400" t="s">
+        <v>4557</v>
+      </c>
+      <c r="C4400" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4400" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4401">
+      <c r="A4401" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4401" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C4401" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4401" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4402">
+      <c r="A4402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4402" t="s">
+        <v>4559</v>
+      </c>
+      <c r="C4402" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4402" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4403">
+      <c r="A4403" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4403" t="s">
+        <v>4560</v>
+      </c>
+      <c r="C4403" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4403" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4404">
+      <c r="A4404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4404" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C4404" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4404" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4405">
+      <c r="A4405" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4405" t="s">
+        <v>4562</v>
+      </c>
+      <c r="C4405" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4405" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4406">
+      <c r="A4406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4406" t="s">
+        <v>4563</v>
+      </c>
+      <c r="C4406" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4406" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4407">
+      <c r="A4407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4407" t="s">
+        <v>4564</v>
+      </c>
+      <c r="C4407" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4407" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4408">
+      <c r="A4408" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4408" t="s">
+        <v>4565</v>
+      </c>
+      <c r="C4408" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4408" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4409">
+      <c r="A4409" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4409" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C4409" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4409" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4410">
+      <c r="A4410" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4410" t="s">
+        <v>4567</v>
+      </c>
+      <c r="C4410" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4410" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4411">
+      <c r="A4411" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4411" t="s">
+        <v>4568</v>
+      </c>
+      <c r="C4411" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4411" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4412">
+      <c r="A4412" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4412" t="s">
+        <v>4569</v>
+      </c>
+      <c r="C4412" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4412" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4413">
+      <c r="A4413" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4413" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C4413" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4413" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4414">
+      <c r="A4414" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4414" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C4414" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4414" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4415">
+      <c r="A4415" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4415" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C4415" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4415" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4416">
+      <c r="A4416" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4416" t="s">
+        <v>4573</v>
+      </c>
+      <c r="C4416" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4416" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4417">
+      <c r="A4417" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4417" t="s">
+        <v>4574</v>
+      </c>
+      <c r="C4417" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4417" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4418">
+      <c r="A4418" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4418" t="s">
+        <v>4575</v>
+      </c>
+      <c r="C4418" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4418" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4419">
+      <c r="A4419" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4419" t="s">
+        <v>4576</v>
+      </c>
+      <c r="C4419" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4419" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4420">
+      <c r="A4420" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4420" t="s">
+        <v>4577</v>
+      </c>
+      <c r="C4420" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4420" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4421">
+      <c r="A4421" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4421" t="s">
+        <v>4578</v>
+      </c>
+      <c r="C4421" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4421" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4422">
+      <c r="A4422" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4422" t="s">
+        <v>4579</v>
+      </c>
+      <c r="C4422" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4422" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4423">
+      <c r="A4423" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4423" t="s">
+        <v>4580</v>
+      </c>
+      <c r="C4423" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4423" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4424">
+      <c r="A4424" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4424" t="s">
+        <v>4581</v>
+      </c>
+      <c r="C4424" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4424" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4425">
+      <c r="A4425" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4425" t="s">
+        <v>4582</v>
+      </c>
+      <c r="C4425" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4425" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4426">
+      <c r="A4426" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4426" t="s">
+        <v>4583</v>
+      </c>
+      <c r="C4426" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4426" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4427">
+      <c r="A4427" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4427" t="s">
+        <v>4584</v>
+      </c>
+      <c r="C4427" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4427" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4428">
+      <c r="A4428" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4428" t="s">
+        <v>4585</v>
+      </c>
+      <c r="C4428" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4428" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4429">
+      <c r="A4429" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4429" t="s">
+        <v>4586</v>
+      </c>
+      <c r="C4429" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4429" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4430">
+      <c r="A4430" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4430" t="s">
+        <v>4587</v>
+      </c>
+      <c r="C4430" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4430" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4431">
+      <c r="A4431" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4431" t="s">
+        <v>4588</v>
+      </c>
+      <c r="C4431" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4431" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4432">
+      <c r="A4432" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4432" t="s">
+        <v>4589</v>
+      </c>
+      <c r="C4432" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4432" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4433">
+      <c r="A4433" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4433" t="s">
+        <v>4590</v>
+      </c>
+      <c r="C4433" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4433" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4434">
+      <c r="A4434" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4434" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C4434" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4434" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4435">
+      <c r="A4435" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4435" t="s">
+        <v>4592</v>
+      </c>
+      <c r="C4435" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4435" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4436">
+      <c r="A4436" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4436" t="s">
+        <v>4593</v>
+      </c>
+      <c r="C4436" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4436" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4437">
+      <c r="A4437" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4437" t="s">
+        <v>4594</v>
+      </c>
+      <c r="C4437" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4437" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4438">
+      <c r="A4438" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4438" t="s">
+        <v>4595</v>
+      </c>
+      <c r="C4438" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4438" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4439">
+      <c r="A4439" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4439" t="s">
+        <v>4596</v>
+      </c>
+      <c r="C4439" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4439" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4440">
+      <c r="A4440" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4440" t="s">
+        <v>4597</v>
+      </c>
+      <c r="C4440" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4440" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4441">
+      <c r="A4441" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4441" t="s">
+        <v>4598</v>
+      </c>
+      <c r="C4441" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4441" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4442">
+      <c r="A4442" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4442" t="s">
+        <v>4599</v>
+      </c>
+      <c r="C4442" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4442" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4443">
+      <c r="A4443" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4443" t="s">
+        <v>4600</v>
+      </c>
+      <c r="C4443" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4443" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4444">
+      <c r="A4444" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4444" t="s">
+        <v>4601</v>
+      </c>
+      <c r="C4444" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4444" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4445">
+      <c r="A4445" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4445" t="s">
+        <v>4602</v>
+      </c>
+      <c r="C4445" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4445" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4446">
+      <c r="A4446" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4446" t="s">
+        <v>4603</v>
+      </c>
+      <c r="C4446" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4446" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4447">
+      <c r="A4447" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4447" t="s">
+        <v>4604</v>
+      </c>
+      <c r="C4447" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4447" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4448">
+      <c r="A4448" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4448" t="s">
+        <v>4605</v>
+      </c>
+      <c r="C4448" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4448" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4449">
+      <c r="A4449" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4449" t="s">
+        <v>4606</v>
+      </c>
+      <c r="C4449" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4449" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4450">
+      <c r="A4450" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4450" t="s">
+        <v>4607</v>
+      </c>
+      <c r="C4450" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4450" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4451">
+      <c r="A4451" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4451" t="s">
+        <v>4608</v>
+      </c>
+      <c r="C4451" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4451" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4452">
+      <c r="A4452" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4452" t="s">
+        <v>4609</v>
+      </c>
+      <c r="C4452" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4452" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4453">
+      <c r="A4453" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4453" t="s">
+        <v>4610</v>
+      </c>
+      <c r="C4453" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4453" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4454">
+      <c r="A4454" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4454" t="s">
+        <v>4611</v>
+      </c>
+      <c r="C4454" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4454" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4455">
+      <c r="A4455" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4455" t="s">
+        <v>4612</v>
+      </c>
+      <c r="C4455" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4455" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4456">
+      <c r="A4456" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4456" t="s">
+        <v>4613</v>
+      </c>
+      <c r="C4456" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4456" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4457">
+      <c r="A4457" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4457" t="s">
+        <v>4614</v>
+      </c>
+      <c r="C4457" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4457" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4458">
+      <c r="A4458" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4458" t="s">
+        <v>4615</v>
+      </c>
+      <c r="C4458" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4458" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="4459">
+      <c r="A4459" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4459" t="s">
+        <v>4616</v>
+      </c>
+      <c r="C4459" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4459" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4460">
+      <c r="A4460" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4460" t="s">
+        <v>4617</v>
+      </c>
+      <c r="C4460" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4460" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4461">
+      <c r="A4461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4461" t="s">
+        <v>4618</v>
+      </c>
+      <c r="C4461" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4461" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4462">
+      <c r="A4462" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4462" t="s">
+        <v>4619</v>
+      </c>
+      <c r="C4462" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4462" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4463">
+      <c r="A4463" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4463" t="s">
+        <v>4620</v>
+      </c>
+      <c r="C4463" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4463" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4464">
+      <c r="A4464" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4464" t="s">
+        <v>4621</v>
+      </c>
+      <c r="C4464" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4464" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4465">
+      <c r="A4465" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4465" t="s">
+        <v>4622</v>
+      </c>
+      <c r="C4465" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4465" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4466">
+      <c r="A4466" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4466" t="s">
+        <v>4623</v>
+      </c>
+      <c r="C4466" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4466" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4467">
+      <c r="A4467" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4467" t="s">
+        <v>4624</v>
+      </c>
+      <c r="C4467" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4467" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4468">
+      <c r="A4468" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4468" t="s">
+        <v>4625</v>
+      </c>
+      <c r="C4468" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4468" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="4469">
+      <c r="A4469" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4469" t="s">
+        <v>4626</v>
+      </c>
+      <c r="C4469" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4469" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4470">
+      <c r="A4470" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4470" t="s">
+        <v>4627</v>
+      </c>
+      <c r="C4470" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4470" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="4471">
+      <c r="A4471" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4471" t="s">
+        <v>4628</v>
+      </c>
+      <c r="C4471" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4471" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4472">
+      <c r="A4472" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4472" t="s">
+        <v>4629</v>
+      </c>
+      <c r="C4472" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4472" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4473">
+      <c r="A4473" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4473" t="s">
+        <v>4630</v>
+      </c>
+      <c r="C4473" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4473" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4474">
+      <c r="A4474" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4474" t="s">
+        <v>4631</v>
+      </c>
+      <c r="C4474" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4474" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4475">
+      <c r="A4475" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4475" t="s">
+        <v>4632</v>
+      </c>
+      <c r="C4475" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4475" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4476">
+      <c r="A4476" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4476" t="s">
+        <v>4633</v>
+      </c>
+      <c r="C4476" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4476" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4477">
+      <c r="A4477" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4477" t="s">
+        <v>4634</v>
+      </c>
+      <c r="C4477" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4477" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4478">
+      <c r="A4478" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4478" t="s">
+        <v>4635</v>
+      </c>
+      <c r="C4478" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4478" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4479">
+      <c r="A4479" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4479" t="s">
+        <v>4636</v>
+      </c>
+      <c r="C4479" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4479" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4480">
+      <c r="A4480" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4480" t="s">
+        <v>4637</v>
+      </c>
+      <c r="C4480" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4480" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4481">
+      <c r="A4481" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4481" t="s">
+        <v>4638</v>
+      </c>
+      <c r="C4481" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4481" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4482">
+      <c r="A4482" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4482" t="s">
+        <v>4639</v>
+      </c>
+      <c r="C4482" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4482" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4483">
+      <c r="A4483" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4483" t="s">
+        <v>4640</v>
+      </c>
+      <c r="C4483" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4483" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4484">
+      <c r="A4484" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4484" t="s">
+        <v>4641</v>
+      </c>
+      <c r="C4484" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4484" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4485">
+      <c r="A4485" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4485" t="s">
+        <v>4642</v>
+      </c>
+      <c r="C4485" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4485" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4486">
+      <c r="A4486" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4486" t="s">
+        <v>4643</v>
+      </c>
+      <c r="C4486" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4486" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4487">
+      <c r="A4487" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4487" t="s">
+        <v>4644</v>
+      </c>
+      <c r="C4487" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4487" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4488">
+      <c r="A4488" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4488" t="s">
+        <v>4645</v>
+      </c>
+      <c r="C4488" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4488" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4489">
+      <c r="A4489" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4489" t="s">
+        <v>4646</v>
+      </c>
+      <c r="C4489" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4489" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4490">
+      <c r="A4490" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4490" t="s">
+        <v>4647</v>
+      </c>
+      <c r="C4490" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4490" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4491">
+      <c r="A4491" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4491" t="s">
+        <v>4648</v>
+      </c>
+      <c r="C4491" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4491" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4492">
+      <c r="A4492" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4492" t="s">
+        <v>4649</v>
+      </c>
+      <c r="C4492" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4492" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4493">
+      <c r="A4493" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4493" t="s">
+        <v>4650</v>
+      </c>
+      <c r="C4493" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4493" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4494">
+      <c r="A4494" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4494" t="s">
+        <v>4651</v>
+      </c>
+      <c r="C4494" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4494" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4495">
+      <c r="A4495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4495" t="s">
+        <v>4652</v>
+      </c>
+      <c r="C4495" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4495" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4496">
+      <c r="A4496" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4496" t="s">
+        <v>4653</v>
+      </c>
+      <c r="C4496" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4496" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4497">
+      <c r="A4497" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4497" t="s">
+        <v>4654</v>
+      </c>
+      <c r="C4497" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4497" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4498">
+      <c r="A4498" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4498" t="s">
+        <v>4655</v>
+      </c>
+      <c r="C4498" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4498" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4499">
+      <c r="A4499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4499" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C4499" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4499" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4500">
+      <c r="A4500" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4500" t="s">
+        <v>4657</v>
+      </c>
+      <c r="C4500" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4500" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4501">
+      <c r="A4501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4501" t="s">
+        <v>4658</v>
+      </c>
+      <c r="C4501" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4501" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4502">
+      <c r="A4502" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4502" t="s">
+        <v>4659</v>
+      </c>
+      <c r="C4502" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4502" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4503">
+      <c r="A4503" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4503" t="s">
+        <v>4660</v>
+      </c>
+      <c r="C4503" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4503" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4504">
+      <c r="A4504" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4504" t="s">
+        <v>4661</v>
+      </c>
+      <c r="C4504" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4504" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4505">
+      <c r="A4505" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4505" t="s">
+        <v>4662</v>
+      </c>
+      <c r="C4505" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4505" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4506">
+      <c r="A4506" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4506" t="s">
+        <v>4663</v>
+      </c>
+      <c r="C4506" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4506" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4507">
+      <c r="A4507" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4507" t="s">
+        <v>4664</v>
+      </c>
+      <c r="C4507" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4507" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4508">
+      <c r="A4508" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4508" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C4508" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4508" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4509">
+      <c r="A4509" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4509" t="s">
+        <v>4666</v>
+      </c>
+      <c r="C4509" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4509" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4510">
+      <c r="A4510" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4510" t="s">
+        <v>4667</v>
+      </c>
+      <c r="C4510" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4510" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4511">
+      <c r="A4511" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4511" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C4511" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4511" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4512">
+      <c r="A4512" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4512" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C4512" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4512" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="4513">
+      <c r="A4513" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4513" t="s">
+        <v>4670</v>
+      </c>
+      <c r="C4513" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4513" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4514">
+      <c r="A4514" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4514" t="s">
+        <v>4671</v>
+      </c>
+      <c r="C4514" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4514" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4515">
+      <c r="A4515" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4515" t="s">
+        <v>4672</v>
+      </c>
+      <c r="C4515" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4515" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="4516">
+      <c r="A4516" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4516" t="s">
+        <v>4673</v>
+      </c>
+      <c r="C4516" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4516" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4517">
+      <c r="A4517" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4517" t="s">
+        <v>4674</v>
+      </c>
+      <c r="C4517" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4517" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4518">
+      <c r="A4518" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4518" t="s">
+        <v>4675</v>
+      </c>
+      <c r="C4518" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4518" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4519">
+      <c r="A4519" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4519" t="s">
+        <v>4676</v>
+      </c>
+      <c r="C4519" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4519" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4520">
+      <c r="A4520" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4520" t="s">
+        <v>4677</v>
+      </c>
+      <c r="C4520" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4520" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4521">
+      <c r="A4521" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4521" t="s">
+        <v>4678</v>
+      </c>
+      <c r="C4521" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4521" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4522">
+      <c r="A4522" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4522" t="s">
+        <v>4679</v>
+      </c>
+      <c r="C4522" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4522" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4523">
+      <c r="A4523" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4523" t="s">
+        <v>4680</v>
+      </c>
+      <c r="C4523" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4523" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4524">
+      <c r="A4524" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4524" t="s">
+        <v>4681</v>
+      </c>
+      <c r="C4524" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4524" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4525">
+      <c r="A4525" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4525" t="s">
+        <v>4682</v>
+      </c>
+      <c r="C4525" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4525" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4526">
+      <c r="A4526" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4526" t="s">
+        <v>4683</v>
+      </c>
+      <c r="C4526" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4526" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4527">
+      <c r="A4527" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4527" t="s">
+        <v>4684</v>
+      </c>
+      <c r="C4527" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4527" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4528">
+      <c r="A4528" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4528" t="s">
+        <v>4685</v>
+      </c>
+      <c r="C4528" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4528" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4529">
+      <c r="A4529" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4529" t="s">
+        <v>4686</v>
+      </c>
+      <c r="C4529" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4529" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4530">
+      <c r="A4530" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4530" t="s">
+        <v>4687</v>
+      </c>
+      <c r="C4530" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4530" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4531">
+      <c r="A4531" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4531" t="s">
+        <v>4688</v>
+      </c>
+      <c r="C4531" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4531" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4532">
+      <c r="A4532" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4532" t="s">
+        <v>4689</v>
+      </c>
+      <c r="C4532" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4532" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4533">
+      <c r="A4533" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4533" t="s">
+        <v>4690</v>
+      </c>
+      <c r="C4533" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4533" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4534">
+      <c r="A4534" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4534" t="s">
+        <v>4691</v>
+      </c>
+      <c r="C4534" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4534" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4535">
+      <c r="A4535" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4535" t="s">
+        <v>4692</v>
+      </c>
+      <c r="C4535" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4535" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4536">
+      <c r="A4536" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4536" t="s">
+        <v>4693</v>
+      </c>
+      <c r="C4536" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4536" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4537">
+      <c r="A4537" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4537" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C4537" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4537" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4538">
+      <c r="A4538" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4538" t="s">
+        <v>4695</v>
+      </c>
+      <c r="C4538" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4538" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4539">
+      <c r="A4539" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4539" t="s">
+        <v>4696</v>
+      </c>
+      <c r="C4539" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4539" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4540">
+      <c r="A4540" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4540" t="s">
+        <v>4697</v>
+      </c>
+      <c r="C4540" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4540" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4541">
+      <c r="A4541" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4541" t="s">
+        <v>4698</v>
+      </c>
+      <c r="C4541" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4541" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4542">
+      <c r="A4542" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4542" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C4542" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4542" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4543">
+      <c r="A4543" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4543" t="s">
+        <v>4700</v>
+      </c>
+      <c r="C4543" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4543" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4544">
+      <c r="A4544" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4544" t="s">
+        <v>4701</v>
+      </c>
+      <c r="C4544" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4544" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4545">
+      <c r="A4545" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4545" t="s">
+        <v>4702</v>
+      </c>
+      <c r="C4545" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4545" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4546">
+      <c r="A4546" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4546" t="s">
+        <v>4703</v>
+      </c>
+      <c r="C4546" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4546" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4547">
+      <c r="A4547" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4547" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C4547" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4547" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4548">
+      <c r="A4548" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4548" t="s">
+        <v>4705</v>
+      </c>
+      <c r="C4548" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4548" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4549">
+      <c r="A4549" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4549" t="s">
+        <v>4706</v>
+      </c>
+      <c r="C4549" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4549" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4550">
+      <c r="A4550" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4550" t="s">
+        <v>4707</v>
+      </c>
+      <c r="C4550" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4550" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4551">
+      <c r="A4551" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4551" t="s">
+        <v>4708</v>
+      </c>
+      <c r="C4551" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4551" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4552">
+      <c r="A4552" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4552" t="s">
+        <v>4709</v>
+      </c>
+      <c r="C4552" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4552" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4553">
+      <c r="A4553" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4553" t="s">
+        <v>4710</v>
+      </c>
+      <c r="C4553" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4553" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4554">
+      <c r="A4554" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4554" t="s">
+        <v>4711</v>
+      </c>
+      <c r="C4554" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4554" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4555">
+      <c r="A4555" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4555" t="s">
+        <v>4712</v>
+      </c>
+      <c r="C4555" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4555" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4556">
+      <c r="A4556" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4556" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C4556" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4556" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4557">
+      <c r="A4557" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4557" t="s">
+        <v>4714</v>
+      </c>
+      <c r="C4557" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4557" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4558">
+      <c r="A4558" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4558" t="s">
+        <v>4715</v>
+      </c>
+      <c r="C4558" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4558" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4559">
+      <c r="A4559" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4559" t="s">
+        <v>4716</v>
+      </c>
+      <c r="C4559" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4559" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4560">
+      <c r="A4560" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4560" t="s">
+        <v>4717</v>
+      </c>
+      <c r="C4560" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4560" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4561">
+      <c r="A4561" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4561" t="s">
+        <v>4718</v>
+      </c>
+      <c r="C4561" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4561" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4562">
+      <c r="A4562" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4562" t="s">
+        <v>4719</v>
+      </c>
+      <c r="C4562" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4562" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4563">
+      <c r="A4563" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4563" t="s">
+        <v>4720</v>
+      </c>
+      <c r="C4563" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4563" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4564">
+      <c r="A4564" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4564" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C4564" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4564" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4565">
+      <c r="A4565" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4565" t="s">
+        <v>4722</v>
+      </c>
+      <c r="C4565" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4565" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4566">
+      <c r="A4566" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4566" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C4566" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4566" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4567">
+      <c r="A4567" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4567" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C4567" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4567" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4568">
+      <c r="A4568" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4568" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C4568" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4568" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4569">
+      <c r="A4569" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4569" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C4569" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4569" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4570">
+      <c r="A4570" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4570" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C4570" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4570" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4571">
+      <c r="A4571" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4571" t="s">
+        <v>4728</v>
+      </c>
+      <c r="C4571" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4571" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4572">
+      <c r="A4572" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4572" t="s">
+        <v>4729</v>
+      </c>
+      <c r="C4572" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4572" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4573">
+      <c r="A4573" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4573" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C4573" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4573" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4574">
+      <c r="A4574" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4574" t="s">
+        <v>4731</v>
+      </c>
+      <c r="C4574" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4574" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4575">
+      <c r="A4575" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4575" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C4575" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4575" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4576">
+      <c r="A4576" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4576" t="s">
+        <v>4733</v>
+      </c>
+      <c r="C4576" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4576" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4577">
+      <c r="A4577" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4577" t="s">
+        <v>4734</v>
+      </c>
+      <c r="C4577" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4577" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4578">
+      <c r="A4578" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4578" t="s">
+        <v>4735</v>
+      </c>
+      <c r="C4578" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4578" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4579">
+      <c r="A4579" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4579" t="s">
+        <v>4736</v>
+      </c>
+      <c r="C4579" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4579" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4580">
+      <c r="A4580" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4580" t="s">
+        <v>4737</v>
+      </c>
+      <c r="C4580" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4580" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4581">
+      <c r="A4581" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4581" t="s">
+        <v>4738</v>
+      </c>
+      <c r="C4581" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4581" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4582">
+      <c r="A4582" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4582" t="s">
+        <v>4739</v>
+      </c>
+      <c r="C4582" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4582" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4583">
+      <c r="A4583" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4583" t="s">
+        <v>4740</v>
+      </c>
+      <c r="C4583" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4583" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4584">
+      <c r="A4584" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4584" t="s">
+        <v>4741</v>
+      </c>
+      <c r="C4584" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4584" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4585">
+      <c r="A4585" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4585" t="s">
+        <v>4742</v>
+      </c>
+      <c r="C4585" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4585" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4586">
+      <c r="A4586" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4586" t="s">
+        <v>4743</v>
+      </c>
+      <c r="C4586" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4586" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4587">
+      <c r="A4587" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4587" t="s">
+        <v>4744</v>
+      </c>
+      <c r="C4587" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4587" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4588">
+      <c r="A4588" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4588" t="s">
+        <v>4745</v>
+      </c>
+      <c r="C4588" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4588" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4589">
+      <c r="A4589" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4589" t="s">
+        <v>4746</v>
+      </c>
+      <c r="C4589" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4589" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4590">
+      <c r="A4590" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4590" t="s">
+        <v>4747</v>
+      </c>
+      <c r="C4590" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4590" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4591">
+      <c r="A4591" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4591" t="s">
+        <v>4748</v>
+      </c>
+      <c r="C4591" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4591" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4592">
+      <c r="A4592" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4592" t="s">
+        <v>4749</v>
+      </c>
+      <c r="C4592" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4592" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4593">
+      <c r="A4593" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4593" t="s">
+        <v>4750</v>
+      </c>
+      <c r="C4593" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4593" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4594">
+      <c r="A4594" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4594" t="s">
+        <v>4751</v>
+      </c>
+      <c r="C4594" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4594" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4595">
+      <c r="A4595" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4595" t="s">
+        <v>4752</v>
+      </c>
+      <c r="C4595" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4595" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4596">
+      <c r="A4596" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4596" t="s">
+        <v>4753</v>
+      </c>
+      <c r="C4596" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4596" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4597">
+      <c r="A4597" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4597" t="s">
+        <v>4754</v>
+      </c>
+      <c r="C4597" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4597" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4598">
+      <c r="A4598" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4598" t="s">
+        <v>4755</v>
+      </c>
+      <c r="C4598" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4598" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4599">
+      <c r="A4599" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4599" t="s">
+        <v>4756</v>
+      </c>
+      <c r="C4599" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4599" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4600">
+      <c r="A4600" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4600" t="s">
+        <v>4757</v>
+      </c>
+      <c r="C4600" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4600" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4601">
+      <c r="A4601" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4601" t="s">
+        <v>4758</v>
+      </c>
+      <c r="C4601" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4601" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4602">
+      <c r="A4602" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4602" t="s">
+        <v>4759</v>
+      </c>
+      <c r="C4602" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4602" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4603">
+      <c r="A4603" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4603" t="s">
+        <v>4760</v>
+      </c>
+      <c r="C4603" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4603" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4604">
+      <c r="A4604" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4604" t="s">
+        <v>4761</v>
+      </c>
+      <c r="C4604" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4604" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4605">
+      <c r="A4605" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4605" t="s">
+        <v>4762</v>
+      </c>
+      <c r="C4605" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4605" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4606">
+      <c r="A4606" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4606" t="s">
+        <v>4763</v>
+      </c>
+      <c r="C4606" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4606" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4607">
+      <c r="A4607" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4607" t="s">
+        <v>4764</v>
+      </c>
+      <c r="C4607" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4607" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4608">
+      <c r="A4608" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4608" t="s">
+        <v>4765</v>
+      </c>
+      <c r="C4608" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4608" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4609">
+      <c r="A4609" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4609" t="s">
+        <v>4766</v>
+      </c>
+      <c r="C4609" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4609" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4610">
+      <c r="A4610" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4610" t="s">
+        <v>4767</v>
+      </c>
+      <c r="C4610" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4610" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4611">
+      <c r="A4611" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4611" t="s">
+        <v>4768</v>
+      </c>
+      <c r="C4611" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4611" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4612">
+      <c r="A4612" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4612" t="s">
+        <v>4769</v>
+      </c>
+      <c r="C4612" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4612" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4613">
+      <c r="A4613" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4613" t="s">
+        <v>4770</v>
+      </c>
+      <c r="C4613" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4613" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4614">
+      <c r="A4614" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4614" t="s">
+        <v>4771</v>
+      </c>
+      <c r="C4614" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4614" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4615">
+      <c r="A4615" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4615" t="s">
+        <v>4772</v>
+      </c>
+      <c r="C4615" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4615" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4616">
+      <c r="A4616" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4616" t="s">
+        <v>4773</v>
+      </c>
+      <c r="C4616" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4616" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4617">
+      <c r="A4617" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4617" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C4617" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4617" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4618">
+      <c r="A4618" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4618" t="s">
+        <v>4775</v>
+      </c>
+      <c r="C4618" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4618" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4619">
+      <c r="A4619" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4619" t="s">
+        <v>4776</v>
+      </c>
+      <c r="C4619" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4619" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4620">
+      <c r="A4620" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4620" t="s">
+        <v>4777</v>
+      </c>
+      <c r="C4620" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4620" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4621">
+      <c r="A4621" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4621" t="s">
+        <v>4778</v>
+      </c>
+      <c r="C4621" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4621" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4622">
+      <c r="A4622" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4622" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C4622" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4622" t="s">
+        <v>681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
